--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P84"/>
+  <dimension ref="A1:P87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4770,7 +4770,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t>5973</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4780,17 +4780,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>EL SERENO 358</t>
+          <t>PALOS 432</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>807168098</t>
+          <t>807168105</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4805,7 +4805,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -4813,7 +4813,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4823,30 +4823,30 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.487371</v>
+        <v>-58.362579</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.640099</v>
+        <v>-34.635096</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>5997</t>
+          <t>3715</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4856,17 +4856,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>MARMOL, JOSE 256</t>
+          <t>EL SERENO 358</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>807187768</t>
+          <t>807168098</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4881,7 +4881,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -4889,7 +4889,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4899,30 +4899,30 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.425845</v>
+        <v>-58.487371</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.616562</v>
+        <v>-34.640099</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">807187860 </t>
+          <t>5997</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Av. San Juan 3960</t>
+          <t>MARMOL, JOSE 256</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -4942,7 +4942,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>807187768</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4957,7 +4957,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
+          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -4978,25 +4978,37 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
+      <c r="M60" t="n">
+        <v>-58.425845</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-34.616562</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>6004</t>
+          <t xml:space="preserve">807187860 </t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>MAZA 181</t>
+          <t>San Juan 3960</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -5006,7 +5018,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>807215439</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5021,7 +5033,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -5042,27 +5054,15 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M61" t="n">
-        <v>-58.416477</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-34.61303</v>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>Almagro</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6007</t>
+          <t>6004</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -5072,7 +5072,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4435</t>
+          <t>MAZA 181</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -5082,7 +5082,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>807215448</t>
+          <t>807215439</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5119,10 +5119,10 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.427424</v>
+        <v>-58.416477</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.601217</v>
+        <v>-34.61303</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -5138,7 +5138,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6008</t>
+          <t>6007</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -5148,7 +5148,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4306</t>
+          <t>HUMAHUACA 4435</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -5158,7 +5158,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>807215455</t>
+          <t>807215448</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5173,7 +5173,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -5195,10 +5195,10 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.426665</v>
+        <v>-58.427424</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.598019</v>
+        <v>-34.601217</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -5214,7 +5214,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>6008</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ESTADO DE PALESTINA 771</t>
+          <t>ESTADO DE ISRAEL AV. 4306</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -5234,7 +5234,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>807215458</t>
+          <t>807215455</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5249,7 +5249,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Picada y mal ubicada coincide con reclamo de cables</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5271,10 +5271,10 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.425478</v>
+        <v>-58.426665</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.601865</v>
+        <v>-34.598019</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -5290,27 +5290,27 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6130</t>
+          <t>6010</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 490</t>
+          <t>ESTADO DE PALESTINA 771</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>807458227</t>
+          <t>807215458</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5325,7 +5325,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
+          <t>Picada y mal ubicada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.440448</v>
+        <v>-58.425478</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.611223</v>
+        <v>-34.601865</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -5366,27 +5366,27 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6168</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
+          <t>VALLESE, FELIPE 490</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>807537512</t>
+          <t>807458227</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
+          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5423,10 +5423,10 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.422775</v>
+        <v>-58.440448</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.604135</v>
+        <v>-34.611223</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -5442,27 +5442,27 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6214</t>
+          <t>6168</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>GONZALEZ, JOAQUIN V. 2308</t>
+          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>807605710</t>
+          <t>807537512</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5477,7 +5477,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5485,7 +5485,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5495,50 +5495,50 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.497698</v>
+        <v>-58.422775</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.612038</v>
+        <v>-34.604135</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6229</t>
+          <t>6214</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 309</t>
+          <t>GONZALEZ, JOAQUIN V. 2308</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>807762987</t>
+          <t>807605710</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5553,7 +5553,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reparar rienda </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -5561,7 +5561,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5575,26 +5575,26 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.44848</v>
+        <v>-58.497698</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.581338</v>
+        <v>-34.612038</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>6229</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE AV. 3416</t>
+          <t>ALVAREZ THOMAS AV. 309</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -5614,7 +5614,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>807762990</t>
+          <t>807762987</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5629,7 +5629,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t xml:space="preserve">Reparar rienda </t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5651,26 +5651,26 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.448496</v>
+        <v>-58.44848</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.58182</v>
+        <v>-34.581338</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6076</t>
+          <t>6228</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -5680,17 +5680,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>MATHEU 727</t>
+          <t>NEWBERY, JORGE AV. 3416</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>807763063</t>
+          <t>807762990</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5705,7 +5705,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -5713,60 +5713,60 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.400169</v>
+        <v>-58.448496</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.617784</v>
+        <v>-34.58182</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6249</t>
+          <t>6076</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>6/25/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2696</t>
+          <t>MATHEU 727</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>807789682</t>
+          <t>807763063</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Inclinada posible cambio</t>
+          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -5794,7 +5794,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -5803,14 +5803,14 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.425296</v>
+        <v>-58.400169</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.578706</v>
+        <v>-34.617784</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -5822,27 +5822,27 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>6271</t>
+          <t>6249</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>6/25/2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>ARGERICH 740</t>
+          <t>GODOY CRUZ 2696</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>807789686</t>
+          <t>807789682</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5857,7 +5857,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Inclinada posible cambio</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -5879,46 +5879,46 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.474467</v>
+        <v>-58.425296</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.624161</v>
+        <v>-34.578706</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>-493</t>
+          <t>6271</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>6/27/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>JUFRE 424</t>
+          <t>ARGERICH 740</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>807817955</t>
+          <t>807789686</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5933,7 +5933,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -5941,7 +5941,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5955,46 +5955,46 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.432644</v>
+        <v>-58.474467</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.595434</v>
+        <v>-34.624161</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>6284</t>
+          <t>-493</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>6/30/2025</t>
+          <t>6/27/2025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CHILE 2561</t>
+          <t>JUFRE 424</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>807851584</t>
+          <t>807817955</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6009,7 +6009,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso</t>
+          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -6017,12 +6017,12 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -6031,14 +6031,14 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.401827</v>
+        <v>-58.432644</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.617667</v>
+        <v>-34.595434</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -6050,27 +6050,27 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>6298</t>
+          <t>6284</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>RIVERA INDARTE AV. 1406</t>
+          <t>CHILE 2561</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>807877127</t>
+          <t>807851584</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6085,7 +6085,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
+          <t>Colocar columna para pedir traspaso</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -6098,7 +6098,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -6107,14 +6107,14 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.450359</v>
+        <v>-58.401827</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.643582</v>
+        <v>-34.617667</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -6126,7 +6126,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6303</t>
+          <t>6298</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>BILBAO, FRANCISCO 2362</t>
+          <t>RIVERA INDARTE AV. 1406</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -6146,7 +6146,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>807877145</t>
+          <t>807877127</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Columna con base corroida oxidada</t>
+          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -6183,10 +6183,10 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.459566</v>
+        <v>-58.450359</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.634615</v>
+        <v>-34.643582</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>6308</t>
+          <t>6303</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -6212,17 +6212,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Guayaquil 637</t>
+          <t>BILBAO, FRANCISCO 2362</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>807896343</t>
+          <t>807877145</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6237,7 +6237,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna con base corroida oxidada</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -6259,10 +6259,10 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.437378</v>
+        <v>-58.459566</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.62116</v>
+        <v>-34.634615</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -6278,27 +6278,27 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>6330</t>
+          <t>6308</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>REPUBLICA DE LA INDIA 3106</t>
+          <t>Guayaquil 637</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>807965776</t>
+          <t>807896343</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Picada e inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -6335,14 +6335,14 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.413941</v>
+        <v>-58.437378</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.57698</v>
+        <v>-34.62116</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -6354,7 +6354,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>-501</t>
+          <t>6330</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -6364,7 +6364,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Cabello 3107</t>
+          <t>REPUBLICA DE LA INDIA 3106</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -6374,7 +6374,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>807971967</t>
+          <t>807965776</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6389,15 +6389,15 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada e inclinada</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -6407,18 +6407,18 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.405749</v>
+        <v>-58.413941</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.58224</v>
+        <v>-34.57698</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -6430,27 +6430,27 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6357</t>
+          <t>-501</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>7/7/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>BACACAY 3088</t>
+          <t>Cabello 3107</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>808036196</t>
+          <t>807971967</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6465,15 +6465,15 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -6487,26 +6487,26 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.473179</v>
+        <v>-58.405749</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.629138</v>
+        <v>-34.58224</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>-502</t>
+          <t>6357</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -6516,17 +6516,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Tagle 2562</t>
+          <t>BACACAY 3088</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>808036198</t>
+          <t>808036196</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6541,7 +6541,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso nodo teco</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -6549,60 +6549,60 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.400188</v>
+        <v>-58.473179</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.583882</v>
+        <v>-34.629138</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>6377</t>
+          <t>-502</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/7/2025</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>GUARDIA VIEJA 4377</t>
+          <t>Tagle 2562</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>808099347</t>
+          <t>808036198</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6617,7 +6617,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna para pedir traspaso nodo teco</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -6630,7 +6630,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -6639,14 +6639,14 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.426322</v>
+        <v>-58.400188</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.600097</v>
+        <v>-34.583882</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -6658,7 +6658,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>6383</t>
+          <t>6377</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -6668,17 +6668,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>FALCON, RAMON L.,CNEL. 1411</t>
+          <t>GUARDIA VIEJA 4377</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>808099320</t>
+          <t>808099347</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6715,14 +6715,14 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.448523</v>
+        <v>-58.426322</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.62452</v>
+        <v>-34.600097</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
@@ -6734,72 +6734,304 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
+          <t>6383</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>7/8/2025</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>FALCON, RAMON L.,CNEL. 1411</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>808099320</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
+        <v>-58.448523</v>
+      </c>
+      <c r="N84" t="n">
+        <v>-34.62452</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
           <t>-506</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>7/11/2025</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Gervasio Espinosa 591</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Espinosa 591</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>808150511</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
         <is>
           <t>Picada</t>
         </is>
       </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="inlineStr">
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="inlineStr">
         <is>
           <t>Cambio</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr">
+      <c r="K85" t="inlineStr">
         <is>
           <t>Nodo Teco</t>
         </is>
       </c>
-      <c r="L84" t="inlineStr">
+      <c r="L85" t="inlineStr">
         <is>
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>No ubicado</t>
-        </is>
-      </c>
-      <c r="P84" t="inlineStr">
-        <is>
-          <t>No clasificado, consultar con mantenimiento</t>
+      <c r="M85" t="n">
+        <v>-58.449</v>
+      </c>
+      <c r="N85" t="n">
+        <v>-34.616077</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>-511</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>7/14/2025</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Carlos Melo 491</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>808194932</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>-58.363292</v>
+      </c>
+      <c r="N86" t="n">
+        <v>-34.642869</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>-513</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>7/15/2025</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Montes de Oca 1809</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>808240768</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Colocar columna donde esta el monoducto para acceso a edifciio</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
+        <v>-58.372941</v>
+      </c>
+      <c r="N87" t="n">
+        <v>-34.648341</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P87"/>
+  <dimension ref="A1:P89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -974,27 +974,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3887</t>
+          <t>3291</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>10/29/2024</t>
+          <t>9/13/2024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4819</t>
+          <t>GUISE 1933</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>798894281</t>
+          <t>796325224</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Inclinado</t>
+          <t>Retirar columna ya traspasaron fuente propia</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -1017,24 +1017,20 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>No corresponde</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
+          <t>Fuente Teco</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>-58.432085</v>
+        <v>-58.412544</v>
       </c>
       <c r="N8" t="n">
-        <v>-34.60178</v>
+        <v>-34.590435</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1050,7 +1046,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3893</t>
+          <t>3887</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1060,17 +1056,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>HERRERA 402</t>
+          <t>ESTADO DE ISRAEL AV. 4819</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>798894295</t>
+          <t>798894281</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1085,7 +1081,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Inclinado En el form cargaron foto de otro caso</t>
+          <t>Inclinado</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1107,14 +1103,14 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>-58.378613</v>
+        <v>-58.432085</v>
       </c>
       <c r="N9" t="n">
-        <v>-34.6349</v>
+        <v>-34.60178</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1126,27 +1122,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3938</t>
+          <t>3893</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>11/5/2024</t>
+          <t>10/29/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2604</t>
+          <t>HERRERA 402</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>799246642</t>
+          <t>798894295</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1161,7 +1157,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Realizar traspasos y retiro de columna vieja</t>
+          <t>Inclinado En el form cargaron foto de otro caso</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1183,14 +1179,14 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>-58.426169</v>
+        <v>-58.378613</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.579697</v>
+        <v>-34.6349</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1202,27 +1198,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4025</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>11/12/2024</t>
+          <t>11/5/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>MEXICO 4249</t>
+          <t>GODOY CRUZ 2604</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>799981143</t>
+          <t>799246642</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1237,7 +1233,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Ver foto, colocar columna para traspasar</t>
+          <t>Realizar traspasos y retiro de columna vieja</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1245,28 +1241,28 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.425997</v>
+        <v>-58.426169</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.620454</v>
+        <v>-34.579697</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1278,17 +1274,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4222</t>
+          <t>4025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11/28/2024</t>
+          <t>11/12/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4500</t>
+          <t>MEXICO 4249</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1298,7 +1294,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>800810078</t>
+          <t>799981143</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1313,7 +1309,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Columna con base corroída/oxidada</t>
+          <t>Ver foto, colocar columna para traspasar</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1326,7 +1322,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1335,10 +1331,10 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.428283</v>
+        <v>-58.425997</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.601207</v>
+        <v>-34.620454</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1354,27 +1350,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4426</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>12/19/2024</t>
+          <t>11/28/2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LORA, FELIX 27</t>
+          <t>HUMAHUACA 4500</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>801768138</t>
+          <t>800810078</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1389,7 +1385,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
+          <t>Columna con base corroída/oxidada</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1402,7 +1398,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1411,14 +1407,14 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.443626</v>
+        <v>-58.428283</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.621032</v>
+        <v>-34.601207</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1430,27 +1426,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6243</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1/30/2024</t>
+          <t>12/19/2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>GARCIA, TEODORO 3252</t>
+          <t>LORA, FELIX 27</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>779373118</t>
+          <t>801768138</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1465,7 +1461,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Colocar R400 para posterior traspaso</t>
+          <t>Traspaso de redes y retiro de columna TLC ya traspaso el nodo</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1478,7 +1474,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1487,46 +1483,46 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.450789</v>
+        <v>-58.443626</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.577949</v>
+        <v>-34.621032</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>-51</t>
+          <t>6243</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4/5/2024</t>
+          <t>1/30/2024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CHARCAS /ALT/ 4176</t>
+          <t>GARCIA, TEODORO 3252</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>782773317</t>
+          <t>779373118</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1541,11 +1537,11 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t xml:space="preserve">columna de 114mm de nuestra propiedad que esta quebrada y en mal estado, para remplazar ubicada en CHARCAS 4176 </t>
+          <t>Colocar R400 para posterior traspaso</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1554,7 +1550,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1563,46 +1559,46 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.421741</v>
+        <v>-58.450789</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.584789</v>
+        <v>-34.577949</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5884</t>
+          <t>-51</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>4/5/2024</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>OLLEROS 2952</t>
+          <t>CHARCAS /ALT/ 4176</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>799450967</t>
+          <t>782773317</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1617,7 +1613,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Solo retirar columna ya se realizo traspaso</t>
+          <t xml:space="preserve">columna de 114mm de nuestra propiedad que esta quebrada y en mal estado, para remplazar ubicada en CHARCAS 4176 </t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1639,10 +1635,10 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.447022</v>
+        <v>-58.421741</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.575873</v>
+        <v>-34.584789</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1658,27 +1654,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4528</t>
+          <t>5884</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1/16/2025</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>BARCO CENTENERA DEL 545</t>
+          <t>OLLEROS 2952</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>802774521</t>
+          <t>799450967</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1693,11 +1689,11 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Solo retirar columna ya se realizo traspaso</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1706,7 +1702,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1715,14 +1711,14 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.440625</v>
+        <v>-58.447022</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.625499</v>
+        <v>-34.575873</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -1734,27 +1730,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4680</t>
+          <t>4528</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1/22/2025</t>
+          <t>1/16/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CUENCA 3345</t>
+          <t>BARCO CENTENERA DEL 545</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>802843289</t>
+          <t>802774521</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1764,7 +1760,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1782,7 +1778,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1791,46 +1787,46 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.496935</v>
+        <v>-58.440625</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.599084</v>
+        <v>-34.625499</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4353</t>
+          <t>4680</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1/23/2025</t>
+          <t>1/22/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>FORMOSA 535</t>
+          <t>CUENCA 3345</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>802857178</t>
+          <t>802843289</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1840,12 +1836,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Colocar columna para traspasar Nodo Telecom</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1867,46 +1863,46 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.435755</v>
+        <v>-58.496935</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.621286</v>
+        <v>-34.599084</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5750</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1/24/2025</t>
+          <t>1/23/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BRASIL 2561</t>
+          <t>FORMOSA 535</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>802871857</t>
+          <t>802857178</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1921,7 +1917,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Colocar columna R400 - Fuente Teco</t>
+          <t>Colocar columna para traspasar Nodo Telecom</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1934,7 +1930,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1943,14 +1939,14 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.400156</v>
+        <v>-58.435755</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.631369</v>
+        <v>-34.621286</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -1962,17 +1958,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4791</t>
+          <t>5750</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>1/24/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>RONDEAU 2775</t>
+          <t>BRASIL 2561</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1982,7 +1978,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>802988219</t>
+          <t>802871857</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1997,7 +1993,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Relevar</t>
+          <t>Colocar columna R400 - Fuente Teco</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -2010,7 +2006,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2019,10 +2015,10 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.402062</v>
+        <v>-58.400156</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.635143</v>
+        <v>-34.631369</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2038,7 +2034,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4768</t>
+          <t>4791</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2048,17 +2044,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 684</t>
+          <t>RONDEAU 2775</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>802988221</t>
+          <t>802988219</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2073,7 +2069,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Relevar</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -2086,7 +2082,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2095,14 +2091,14 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.443039</v>
+        <v>-58.402062</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.612262</v>
+        <v>-34.635143</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2114,27 +2110,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4831</t>
+          <t>4768</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2/4/2025</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MERCEDES 3054</t>
+          <t>VALLESE, FELIPE 684</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>803086856</t>
+          <t>802988221</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2149,7 +2145,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Sacar rienda a pique ver con inspector</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -2167,50 +2163,50 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.506348</v>
+        <v>-58.443039</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.607461</v>
+        <v>-34.612262</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6066</t>
+          <t>4831</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>2/4/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ALBARIÑO 1331</t>
+          <t>MERCEDES 3054</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>803651213</t>
+          <t>803086856</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2225,7 +2221,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Podrida en la base</t>
+          <t>Sacar rienda a pique ver con inspector</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -2243,14 +2239,14 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.496255</v>
+        <v>-58.506348</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.650599</v>
+        <v>-34.607461</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2266,27 +2262,27 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5496</t>
+          <t>6066</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3/7/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ISABEL LA CATOLICA 1539</t>
+          <t>ALBARIÑO 1331</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>803778980</t>
+          <t>803651213</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2301,11 +2297,11 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Picada cambiaron la incorrecta</t>
+          <t>Podrida en la base</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2323,36 +2319,36 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.371855</v>
+        <v>-58.496255</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.646958</v>
+        <v>-34.650599</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>5496</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3/12/2025</t>
+          <t>3/7/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>BERUTI 2716</t>
+          <t>ISABEL LA CATOLICA 1539</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2362,7 +2358,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>803969347</t>
+          <t>803778980</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2377,7 +2373,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Picada cambiaron la incorrecta</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2399,14 +2395,14 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.403583</v>
+        <v>-58.371855</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.591604</v>
+        <v>-34.646958</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2418,27 +2414,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4572</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/12/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 5263</t>
+          <t>BERUTI 2716</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>804309785</t>
+          <t>803969347</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2453,11 +2449,11 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2475,14 +2471,14 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.439791</v>
+        <v>-58.403583</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.61969</v>
+        <v>-34.591604</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2494,7 +2490,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4179</t>
+          <t>4572</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2504,17 +2500,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ZELARRAYAN 6147</t>
+          <t>RIVADAVIA AV. 5263</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>804309801</t>
+          <t>804309785</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2524,10 +2520,14 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I28" t="n">
         <v>1</v>
       </c>
@@ -2538,7 +2538,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2547,10 +2547,10 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.483821</v>
+        <v>-58.439791</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.677698</v>
+        <v>-34.61969</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2566,27 +2566,27 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5521</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>EL PEREGRINO 3115</t>
+          <t>ZELARRAYAN 6147</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>804569000</t>
+          <t>804309801</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2596,73 +2596,69 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Volvio a ingresar se inclino el poste - caso 6316</t>
-        </is>
-      </c>
+          <t>Pendiente de Traspaso PROPIO</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
         <v>1</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.485232</v>
+        <v>-58.483821</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.611573</v>
+        <v>-34.677698</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>-317</t>
+          <t>5521</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4/9/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
+          <t>EL PEREGRINO 3115</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>804569034</t>
+          <t>804569000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2677,7 +2673,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Solo retirar columna ya se realizo traspaso en las fotos no se ve pero ya esta realizado</t>
+          <t>Volvio a ingresar se inclino el poste - caso 6316</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2685,60 +2681,60 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.445131</v>
+        <v>-58.485232</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.572117</v>
+        <v>-34.611573</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6009</t>
+          <t>-317</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>4/9/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SARMIENTO 4290</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804569065</t>
+          <t>804569034</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2753,7 +2749,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Columna corroída en su base</t>
+          <t>Solo retirar columna ya se realizo traspaso en las fotos no se ve pero ya esta realizado</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2766,7 +2762,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2775,14 +2771,14 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.425764</v>
+        <v>-58.445131</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.604359</v>
+        <v>-34.572117</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -2794,27 +2790,27 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5626</t>
+          <t>6009</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ACOYTE AV. 746</t>
+          <t>SARMIENTO 4290</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804876044</t>
+          <t>804569065</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2829,7 +2825,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aplomador</t>
+          <t>Columna corroída en su base</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2837,7 +2833,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2851,10 +2847,10 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.439751</v>
+        <v>-58.425764</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.609908</v>
+        <v>-34.604359</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2870,7 +2866,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5632</t>
+          <t>5626</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2880,7 +2876,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 93</t>
+          <t>ACOYTE AV. 746</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2890,7 +2886,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804876047</t>
+          <t>804876044</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2905,7 +2901,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Aplomador</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2927,14 +2923,14 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.43607</v>
+        <v>-58.439751</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.61926</v>
+        <v>-34.609908</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -2946,7 +2942,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5651</t>
+          <t>5632</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2956,17 +2952,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 511</t>
+          <t>MORENO, JOSE MARIA AV. 93</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804876051</t>
+          <t>804876047</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2981,7 +2977,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Pegar los ductos al prfv</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -2989,7 +2985,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3003,14 +2999,14 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.375515</v>
+        <v>-58.43607</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.634393</v>
+        <v>-34.61926</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -3022,27 +3018,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5887</t>
+          <t>5651</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4/25/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>PALPA 3162</t>
+          <t>MONTES DE OCA, MANUEL AV. 511</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>805010113</t>
+          <t>804876051</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3057,7 +3053,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Cambiar columna podrida en base.</t>
+          <t>Pegar los ductos al prfv</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -3079,46 +3075,46 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.451203</v>
+        <v>-58.375515</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.576561</v>
+        <v>-34.634393</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>5887</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>4/25/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>TUCUMAN 3589</t>
+          <t>PALPA 3162</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>805507284</t>
+          <t>805010113</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3133,7 +3129,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna podrida en base.</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -3155,46 +3151,46 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.415839</v>
+        <v>-58.451203</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.599291</v>
+        <v>-34.576561</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Migueletes 1326</t>
+          <t>TUCUMAN 3589</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>805507284</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3231,46 +3227,46 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.440177</v>
+        <v>-58.415839</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.56291</v>
+        <v>-34.599291</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6110</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CORRALES 6147</t>
+          <t>Migueletes 1326</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>805707291</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3285,7 +3281,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Columna corroida en su base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -3307,46 +3303,46 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.469148</v>
+        <v>-58.440177</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.687883</v>
+        <v>-34.56291</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5839</t>
+          <t>6110</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>AYACUCHO 267</t>
+          <t>CORRALES 6147</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>806926385</t>
+          <t>805707291</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3361,7 +3357,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
+          <t>Columna corroida en su base</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -3374,7 +3370,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3383,14 +3379,14 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.395063</v>
+        <v>-58.469148</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.606257</v>
+        <v>-34.687883</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -3402,7 +3398,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>5839</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3412,17 +3408,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 4548</t>
+          <t>AYACUCHO 267</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>806926405</t>
+          <t>806926385</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3437,7 +3433,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -3445,12 +3441,12 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3459,14 +3455,14 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.429977</v>
+        <v>-58.395063</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.615514</v>
+        <v>-34.606257</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -3478,7 +3474,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5835</t>
+          <t>5836</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3488,17 +3484,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>YAPEYU 198</t>
+          <t>RIVADAVIA AV. 4548</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>806926444</t>
+          <t>806926405</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3535,14 +3531,14 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.421623</v>
+        <v>-58.429977</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.614541</v>
+        <v>-34.615514</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -3554,27 +3550,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-416</t>
+          <t>5835</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Paraguay 3765</t>
+          <t>YAPEYU 198</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>806926557</t>
+          <t>806926444</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3589,7 +3585,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3597,12 +3593,12 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3611,14 +3607,14 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.416562</v>
+        <v>-58.421623</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.590589</v>
+        <v>-34.614541</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -3630,7 +3626,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-428</t>
+          <t>-416</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3640,17 +3636,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Asamblea 301</t>
+          <t>Paraguay 3765</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>806926697</t>
+          <t>806926557</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3665,7 +3661,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Chocada en accidente</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3678,7 +3674,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3687,14 +3683,14 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.429972</v>
+        <v>-58.416562</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.632042</v>
+        <v>-34.590589</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -3706,7 +3702,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-429</t>
+          <t>-428</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3716,17 +3712,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Blanco encalada 4362</t>
+          <t>Asamblea 301</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>806926710</t>
+          <t>806926697</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3741,7 +3737,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
+          <t>Chocada en accidente</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3763,26 +3759,26 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.47888</v>
+        <v>-58.429972</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.571108</v>
+        <v>-34.632042</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>-429</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3792,17 +3788,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>BACACAY 961</t>
+          <t>Blanco encalada 4362</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>806926757</t>
+          <t>806926710</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3817,7 +3813,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Columna inclinada con base corroída</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3839,26 +3835,26 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.443196</v>
+        <v>-58.47888</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.618534</v>
+        <v>-34.571108</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-437</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3868,17 +3864,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Cochabamba 4090</t>
+          <t>BACACAY 961</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>806926861</t>
+          <t>806926757</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3893,7 +3889,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
+          <t>Columna inclinada con base corroída</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3906,7 +3902,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3915,14 +3911,14 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.422268</v>
+        <v>-58.443196</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.627754</v>
+        <v>-34.618534</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -3934,7 +3930,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-438</t>
+          <t>-437</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3944,17 +3940,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Juncal 4565</t>
+          <t>Cochabamba 4090</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>806926927</t>
+          <t>806926861</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3969,7 +3965,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -3982,7 +3978,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3991,14 +3987,14 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.423148</v>
+        <v>-58.422268</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.576964</v>
+        <v>-34.627754</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -4010,7 +4006,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-440</t>
+          <t>-438</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4020,17 +4016,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>LAPRIDA 1374</t>
+          <t>Juncal 4565</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807005369</t>
+          <t>806926927</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4040,16 +4036,16 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Se coloco columna nueva queda pendiente de traspaso</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -4067,14 +4063,14 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.406585</v>
+        <v>-58.423148</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.592933</v>
+        <v>-34.576964</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -4086,7 +4082,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-445</t>
+          <t>-440</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -4096,17 +4092,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4410</t>
+          <t>LAPRIDA 1374</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>806945058</t>
+          <t>807005369</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4116,16 +4112,16 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Se coloco columna nueva queda pendiente de traspaso</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -4134,55 +4130,55 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.51232</v>
+        <v>-58.406585</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.595637</v>
+        <v>-34.592933</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>-445</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>MONROE 4833</t>
+          <t>Joaquin V Gonzalez 4410</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>807044121</t>
+          <t>806945058</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4197,7 +4193,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -4215,18 +4211,18 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.483104</v>
+        <v>-58.51232</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.572353</v>
+        <v>-34.595637</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -4238,27 +4234,27 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>5937</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 3305</t>
+          <t>MONROE 4833</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807044131</t>
+          <t>807044121</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4273,7 +4269,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -4281,7 +4277,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4291,14 +4287,14 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.483927</v>
+        <v>-58.483104</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.570689</v>
+        <v>-34.572353</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -4314,17 +4310,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>5938</t>
+          <t>5935</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 5615</t>
+          <t>ALVAREZ THOMAS AV. 3305</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -4334,7 +4330,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>807044154</t>
+          <t>807044131</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4349,7 +4345,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -4357,7 +4353,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4367,18 +4363,18 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.501766</v>
+        <v>-58.483927</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.574369</v>
+        <v>-34.570689</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -4390,7 +4386,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>5944</t>
+          <t>5938</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4400,17 +4396,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
+          <t>DE LOS CONSTITUYENTES AV. 5615</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>807044186</t>
+          <t>807044154</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4447,26 +4443,26 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.467789</v>
+        <v>-58.501766</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.68463</v>
+        <v>-34.574369</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>-451</t>
+          <t>5944</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4476,17 +4472,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Uriarte 2426</t>
+          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>807044071</t>
+          <t>807044186</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4501,7 +4497,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -4514,7 +4510,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4523,14 +4519,14 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.423551</v>
+        <v>-58.467789</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.581258</v>
+        <v>-34.68463</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -4542,27 +4538,27 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>-451</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CAFAYATE 5007</t>
+          <t>Uriarte 2426</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>807129336</t>
+          <t>807044071</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4577,7 +4573,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Columna inclinada Columna con base corroída oxidada</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -4590,7 +4586,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4599,14 +4595,14 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.468182</v>
+        <v>-58.423551</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.685231</v>
+        <v>-34.581258</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -4618,7 +4614,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4628,7 +4624,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>MURGUIONDO 3990</t>
+          <t>CAFAYATE 5007</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -4638,7 +4634,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>807129347</t>
+          <t>807129336</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4653,7 +4649,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Columna inclinada Columna con base corroída oxidada</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -4671,14 +4667,14 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.477944</v>
+        <v>-58.468182</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.675149</v>
+        <v>-34.685231</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -4694,7 +4690,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>5954</t>
+          <t>5948</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4704,17 +4700,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>YAPEYU 938</t>
+          <t>MURGUIONDO 3990</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>807129372</t>
+          <t>807129347</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4729,7 +4725,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -4747,14 +4743,14 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.4212</v>
+        <v>-58.477944</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.623575</v>
+        <v>-34.675149</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -4770,27 +4766,27 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>5973</t>
+          <t>5954</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>PALOS 432</t>
+          <t>YAPEYU 938</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>807168105</t>
+          <t>807129372</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4805,7 +4801,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -4827,14 +4823,14 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.362579</v>
+        <v>-58.4212</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.635096</v>
+        <v>-34.623575</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -4846,7 +4842,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t>5973</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4856,17 +4852,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>EL SERENO 358</t>
+          <t>PALOS 432</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>807168098</t>
+          <t>807168105</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -4881,7 +4877,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -4889,7 +4885,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4899,30 +4895,30 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.487371</v>
+        <v>-58.362579</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.640099</v>
+        <v>-34.635096</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>5997</t>
+          <t>3715</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4932,17 +4928,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>MARMOL, JOSE 256</t>
+          <t>EL SERENO 358</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>807187768</t>
+          <t>807168098</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4957,7 +4953,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -4965,7 +4961,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4975,30 +4971,30 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.425845</v>
+        <v>-58.487371</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.616562</v>
+        <v>-34.640099</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">807187860 </t>
+          <t>5997</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -5008,7 +5004,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>San Juan 3960</t>
+          <t>MARMOL, JOSE 256</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -5018,7 +5014,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>807187768</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5033,7 +5029,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
+          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -5054,25 +5050,37 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
+      <c r="M61" t="n">
+        <v>-58.425845</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-34.616562</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6004</t>
+          <t xml:space="preserve">807187860 </t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>MAZA 181</t>
+          <t>San Juan 3960</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -5082,7 +5090,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>807215439</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5097,7 +5105,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -5118,27 +5126,15 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M62" t="n">
-        <v>-58.416477</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-34.61303</v>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>Almagro</t>
-        </is>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6007</t>
+          <t>6004</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -5148,7 +5144,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4435</t>
+          <t>MAZA 181</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -5158,7 +5154,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>807215448</t>
+          <t>807215439</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5195,10 +5191,10 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.427424</v>
+        <v>-58.416477</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.601217</v>
+        <v>-34.61303</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -5214,7 +5210,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6008</t>
+          <t>6007</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -5224,7 +5220,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4306</t>
+          <t>HUMAHUACA 4435</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -5234,7 +5230,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>807215455</t>
+          <t>807215448</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5249,7 +5245,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -5271,10 +5267,10 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.426665</v>
+        <v>-58.427424</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.598019</v>
+        <v>-34.601217</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -5290,7 +5286,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>6008</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -5300,7 +5296,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>ESTADO DE PALESTINA 771</t>
+          <t>ESTADO DE ISRAEL AV. 4306</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -5310,7 +5306,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>807215458</t>
+          <t>807215455</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5325,7 +5321,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Picada y mal ubicada coincide con reclamo de cables</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -5347,10 +5343,10 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.425478</v>
+        <v>-58.426665</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.601865</v>
+        <v>-34.598019</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -5366,27 +5362,27 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6130</t>
+          <t>6010</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 490</t>
+          <t>ESTADO DE PALESTINA 771</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>807458227</t>
+          <t>807215458</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5401,7 +5397,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
+          <t>Picada y mal ubicada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -5409,7 +5405,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -5423,10 +5419,10 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.440448</v>
+        <v>-58.425478</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.611223</v>
+        <v>-34.601865</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -5442,27 +5438,27 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6168</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
+          <t>VALLESE, FELIPE 490</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>807537512</t>
+          <t>807458227</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5477,7 +5473,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
+          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -5499,10 +5495,10 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.422775</v>
+        <v>-58.440448</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.604135</v>
+        <v>-34.611223</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -5518,27 +5514,27 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6214</t>
+          <t>6168</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>GONZALEZ, JOAQUIN V. 2308</t>
+          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>807605710</t>
+          <t>807537512</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5553,7 +5549,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -5561,7 +5557,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5571,50 +5567,50 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.497698</v>
+        <v>-58.422775</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.612038</v>
+        <v>-34.604135</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6229</t>
+          <t>6214</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 309</t>
+          <t>GONZALEZ, JOAQUIN V. 2308</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>807762987</t>
+          <t>807605710</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5629,7 +5625,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reparar rienda </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -5637,7 +5633,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -5651,26 +5647,26 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.44848</v>
+        <v>-58.497698</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.581338</v>
+        <v>-34.612038</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>6229</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -5680,7 +5676,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE AV. 3416</t>
+          <t>ALVAREZ THOMAS AV. 309</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -5690,7 +5686,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>807762990</t>
+          <t>807762987</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5705,7 +5701,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t xml:space="preserve">Reparar rienda </t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -5727,26 +5723,26 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.448496</v>
+        <v>-58.44848</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.58182</v>
+        <v>-34.581338</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6076</t>
+          <t>6228</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -5756,17 +5752,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>MATHEU 727</t>
+          <t>NEWBERY, JORGE AV. 3416</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>807763063</t>
+          <t>807762990</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5781,7 +5777,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -5789,60 +5785,60 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.400169</v>
+        <v>-58.448496</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.617784</v>
+        <v>-34.58182</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>6249</t>
+          <t>6076</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>6/25/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2696</t>
+          <t>MATHEU 727</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>807789682</t>
+          <t>807763063</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5857,7 +5853,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Inclinada posible cambio</t>
+          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -5870,7 +5866,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -5879,14 +5875,14 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.425296</v>
+        <v>-58.400169</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.578706</v>
+        <v>-34.617784</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -5898,27 +5894,27 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>6271</t>
+          <t>6249</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>6/25/2025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>ARGERICH 740</t>
+          <t>GODOY CRUZ 2696</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>807789686</t>
+          <t>807789682</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5933,7 +5929,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Inclinada posible cambio</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -5955,46 +5951,46 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.474467</v>
+        <v>-58.425296</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.624161</v>
+        <v>-34.578706</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>-493</t>
+          <t>6271</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>6/27/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>JUFRE 424</t>
+          <t>ARGERICH 740</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>807817955</t>
+          <t>807789686</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6009,7 +6005,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -6017,7 +6013,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -6031,46 +6027,46 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.432644</v>
+        <v>-58.474467</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.595434</v>
+        <v>-34.624161</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>6284</t>
+          <t>-493</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>6/30/2025</t>
+          <t>6/27/2025</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CHILE 2561</t>
+          <t>JUFRE 424</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>807851584</t>
+          <t>807817955</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6085,7 +6081,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso</t>
+          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -6093,12 +6089,12 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -6107,14 +6103,14 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.401827</v>
+        <v>-58.432644</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.617667</v>
+        <v>-34.595434</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -6126,27 +6122,27 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6298</t>
+          <t>6284</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>RIVERA INDARTE AV. 1406</t>
+          <t>CHILE 2561</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>807877127</t>
+          <t>807851584</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6161,7 +6157,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
+          <t>Colocar columna para pedir traspaso</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -6174,7 +6170,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -6183,14 +6179,14 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.450359</v>
+        <v>-58.401827</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.643582</v>
+        <v>-34.617667</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -6202,7 +6198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>6303</t>
+          <t>6298</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -6212,7 +6208,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>BILBAO, FRANCISCO 2362</t>
+          <t>RIVERA INDARTE AV. 1406</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -6222,7 +6218,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>807877145</t>
+          <t>807877127</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6237,7 +6233,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Columna con base corroida oxidada</t>
+          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -6259,10 +6255,10 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.459566</v>
+        <v>-58.450359</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.634615</v>
+        <v>-34.643582</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -6278,7 +6274,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>6308</t>
+          <t>6303</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -6288,17 +6284,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Guayaquil 637</t>
+          <t>BILBAO, FRANCISCO 2362</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>807896343</t>
+          <t>807877145</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6313,7 +6309,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna con base corroida oxidada</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -6335,10 +6331,10 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.437378</v>
+        <v>-58.459566</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.62116</v>
+        <v>-34.634615</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -6354,27 +6350,27 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>6330</t>
+          <t>6308</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>REPUBLICA DE LA INDIA 3106</t>
+          <t>Guayaquil 637</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>807965776</t>
+          <t>807896343</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6389,7 +6385,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Picada e inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -6411,14 +6407,14 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.413941</v>
+        <v>-58.437378</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.57698</v>
+        <v>-34.62116</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -6430,7 +6426,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>-501</t>
+          <t>6330</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -6440,7 +6436,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Cabello 3107</t>
+          <t>REPUBLICA DE LA INDIA 3106</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -6450,7 +6446,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>807971967</t>
+          <t>807965776</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6465,15 +6461,15 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada e inclinada</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -6483,18 +6479,18 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.405749</v>
+        <v>-58.413941</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.58224</v>
+        <v>-34.57698</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -6506,27 +6502,27 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6357</t>
+          <t>-501</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>7/7/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>BACACAY 3088</t>
+          <t>Cabello 3107</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>808036196</t>
+          <t>807971967</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6541,15 +6537,15 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6563,26 +6559,26 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.473179</v>
+        <v>-58.405749</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.629138</v>
+        <v>-34.58224</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>-502</t>
+          <t>6357</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -6592,17 +6588,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Tagle 2562</t>
+          <t>BACACAY 3088</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>808036198</t>
+          <t>808036196</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6617,7 +6613,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso nodo teco</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -6625,60 +6621,60 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.400188</v>
+        <v>-58.473179</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.583882</v>
+        <v>-34.629138</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>6377</t>
+          <t>-502</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/7/2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>GUARDIA VIEJA 4377</t>
+          <t>Tagle 2562</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>808099347</t>
+          <t>808036198</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6693,7 +6689,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna para pedir traspaso nodo teco</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -6706,7 +6702,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -6715,14 +6711,14 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.426322</v>
+        <v>-58.400188</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.600097</v>
+        <v>-34.583882</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
@@ -6734,7 +6730,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>6383</t>
+          <t>6377</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -6744,17 +6740,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>FALCON, RAMON L.,CNEL. 1411</t>
+          <t>GUARDIA VIEJA 4377</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>808099320</t>
+          <t>808099347</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6791,14 +6787,14 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.448523</v>
+        <v>-58.426322</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.62452</v>
+        <v>-34.600097</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -6810,17 +6806,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>-506</t>
+          <t>6383</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>7/11/2025</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Espinosa 591</t>
+          <t>FALCON, RAMON L.,CNEL. 1411</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -6830,7 +6826,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>808150511</t>
+          <t>808099320</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6858,7 +6854,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -6867,10 +6863,10 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.449</v>
+        <v>-58.448523</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.616077</v>
+        <v>-34.62452</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -6886,27 +6882,27 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>-511</t>
+          <t>-506</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>7/14/2025</t>
+          <t>7/11/2025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Carlos Melo 491</t>
+          <t>Espinosa 591</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>808194932</t>
+          <t>808150511</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6934,23 +6930,23 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.363292</v>
+        <v>-58.449</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.642869</v>
+        <v>-34.616077</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -6962,74 +6958,226 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
+          <t>-511</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>7/14/2025</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Carlos Melo 491</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>808194932</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
+        <v>-58.363292</v>
+      </c>
+      <c r="N87" t="n">
+        <v>-34.642869</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
           <t>-513</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>7/15/2025</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>Montes de Oca 1809</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>808240768</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
         <is>
           <t>Colocar columna donde esta el monoducto para acceso a edifciio</t>
         </is>
       </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="inlineStr">
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr">
         <is>
           <t>Cambio</t>
         </is>
       </c>
-      <c r="K87" t="inlineStr">
+      <c r="K88" t="inlineStr">
         <is>
           <t>Sin equipos</t>
         </is>
       </c>
-      <c r="L87" t="inlineStr">
+      <c r="L88" t="inlineStr">
         <is>
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M87" t="n">
+      <c r="M88" t="n">
         <v>-58.372941</v>
       </c>
-      <c r="N87" t="n">
+      <c r="N88" t="n">
         <v>-34.648341</v>
       </c>
-      <c r="O87" t="inlineStr">
+      <c r="O88" t="inlineStr">
         <is>
           <t>San Telmo</t>
         </is>
       </c>
-      <c r="P87" t="inlineStr">
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>-517</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>7/16/2025</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Av Dorrego 2721</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>808373635</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Cambiar columna 114 base corroida y cable de fo cortado</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>-58.432805</v>
+      </c>
+      <c r="N89" t="n">
+        <v>-34.574345</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>
